--- a/MB51_02-02-2026.xlsx
+++ b/MB51_02-02-2026.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,27 +529,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.411.448</t>
+          <t>10.317.437</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>13254.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.776.659</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.942.474</t>
+          <t>10.575.166</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -559,7 +559,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11.043.945</t>
+          <t>10.640.973</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -569,17 +569,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11.698.615</t>
+          <t>10.769.608</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12.485.792</t>
+          <t>10.771.658</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -589,50 +589,140 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12.812.553</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12.814.121</t>
+          <t>10.777.183</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.12</v>
+        <v>1442.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12.814.128</t>
+          <t>10.942.474</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3067.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12.883.612</t>
+          <t>10.953.070</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>11.043.945</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11.698.615</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12.485.792</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12.717.139</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12.812.553</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12.814.121</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12.814.128</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3067.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12.821.019</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12.883.612</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>70.000.196</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>548710.17</v>
       </c>
     </row>
@@ -647,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +941,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -891,7 +981,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -937,7 +1027,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0013</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -977,7 +1067,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1357,7 +1447,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y21</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1397,7 +1487,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4904574478</t>
+          <t>4904574475</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1407,7 +1497,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2-</t>
+          <t xml:space="preserve">        2 </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1417,7 +1507,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675473-1     </t>
+          <t>                </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1432,7 +1522,7 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1443,7 +1533,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1483,7 +1573,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4904574475</t>
+          <t>4904574478</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1493,7 +1583,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2 </t>
+          <t xml:space="preserve">        2-</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1503,7 +1593,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">000675473-1     </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1518,7 +1608,7 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1805,7 +1895,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M077</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1845,7 +1935,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1891,7 +1981,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M077</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1906,12 +1996,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1921,7 +2011,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4904574162</t>
+          <t>4904574164</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1931,7 +2021,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1946,7 +2036,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2825603/152340           </t>
+          <t xml:space="preserve">2843632/152342           </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1977,7 +2067,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F1VB</t>
+          <t>M077</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1992,12 +2082,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2007,7 +2097,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4904573218</t>
+          <t>4904574162</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2017,7 +2107,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2027,12 +2117,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2801408/152341  </t>
+          <t xml:space="preserve">2918135         </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAVIT MA 213/2025        </t>
+          <t xml:space="preserve">2825603/152340           </t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2078,12 +2168,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2093,7 +2183,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4904573218</t>
+          <t>4904574162</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2103,7 +2193,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2113,12 +2203,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2801408/152341  </t>
+          <t xml:space="preserve">2918135         </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAVIT MA 213/2025        </t>
+          <t xml:space="preserve">2825603/152340           </t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2149,7 +2239,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M077</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2164,12 +2254,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2179,7 +2269,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4904574162</t>
+          <t>4904574160</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2189,7 +2279,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2235,7 +2325,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>M077</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2275,7 +2365,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2351,7 +2441,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4904574164</t>
+          <t>4904573919</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2376,7 +2466,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2843632/152342           </t>
+          <t xml:space="preserve">2801408/152341           </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2407,7 +2497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F1VB</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2437,7 +2527,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4904573911</t>
+          <t>4904573919</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2457,12 +2547,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">2825603/152340  </t>
+          <t xml:space="preserve">2918135         </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAVIT MA 213/2025        </t>
+          <t xml:space="preserve">2801408/152341           </t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2523,7 +2613,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4904573911</t>
+          <t>4904573916</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2543,7 +2633,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2825603/152340  </t>
+          <t xml:space="preserve">2843632/152342  </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2594,12 +2684,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CONS/IAMN</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2609,7 +2699,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4904573915</t>
+          <t>4904573916</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2629,7 +2719,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2825603/152340  </t>
+          <t xml:space="preserve">2843632/152342  </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2766,12 +2856,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>CONS/IAMN</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2781,7 +2871,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4904573916</t>
+          <t>4904573915</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2801,7 +2891,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">2843632/152342  </t>
+          <t xml:space="preserve">2825603/152340  </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2867,7 +2957,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4904573916</t>
+          <t>4904573911</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2887,7 +2977,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">2843632/152342  </t>
+          <t xml:space="preserve">2825603/152340  </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2923,7 +3013,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2953,7 +3043,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4904573919</t>
+          <t>4904573911</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2973,12 +3063,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">2918135         </t>
+          <t xml:space="preserve">2825603/152340  </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve">2801408/152341           </t>
+          <t xml:space="preserve">BAVIT MA 213/2025        </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3009,7 +3099,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M077</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3039,7 +3129,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4904573919</t>
+          <t>4904573218</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3059,12 +3149,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2918135         </t>
+          <t xml:space="preserve">2801408/152341  </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2801408/152341           </t>
+          <t xml:space="preserve">BAVIT MA 213/2025        </t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3095,7 +3185,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3125,7 +3215,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4904574160</t>
+          <t>4904573218</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3145,12 +3235,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2918135         </t>
+          <t xml:space="preserve">2801408/152341  </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2825603/152340           </t>
+          <t xml:space="preserve">BAVIT MA 213/2025        </t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3439,7 +3529,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3479,7 +3569,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">       80 </t>
+          <t xml:space="preserve">       80-</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3525,7 +3615,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F1VB</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3565,7 +3655,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">       80-</t>
+          <t xml:space="preserve">       80 </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3682,42 +3772,42 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> M2A0   </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Y21</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>M0BV</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.411.448</t>
+          <t>10.317.437</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
+          <t xml:space="preserve">Manilha espec. DN 102mm                 </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t xml:space="preserve">IMOB/IMP </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t xml:space="preserve">IMOB/IMP </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3727,7 +3817,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4904573650</t>
+          <t>4904581001</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3737,7 +3827,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3747,12 +3837,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675458-1     </t>
+          <t>                </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3762,13 +3852,13 @@
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>13254.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> G25D   </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3778,32 +3868,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.411.448</t>
+          <t>10.317.437</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
+          <t xml:space="preserve">Manilha espec. DN 102mm                 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3813,7 +3903,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4904573650</t>
+          <t>4904580588</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3833,12 +3923,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675458-1     </t>
+          <t>                </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3854,42 +3944,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> G25D   </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>FBEL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10.411.448</t>
+          <t>10.317.437</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
+          <t xml:space="preserve">Manilha espec. DN 102mm                 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3899,7 +3989,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4904573477</t>
+          <t>4904580588</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3919,12 +4009,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>G SKAU-04-108/25</t>
+          <t>                </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3934,7 +4024,7 @@
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3945,27 +4035,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M0BV</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10.776.659</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3985,7 +4075,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4904575994</t>
+          <t>4904581732</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3995,7 +4085,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2 </t>
+          <t xml:space="preserve">        3 </t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4005,12 +4095,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">AJUSTE SALDO    </t>
+          <t>                </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve">REF A DSM 4903090919     </t>
+          <t xml:space="preserve">GEM BAVIT SATO-03-086/25 </t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4020,48 +4110,48 @@
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G5G6   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10.942.474</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rolete                                  </t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4071,7 +4161,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4904574668</t>
+          <t>4904581732</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4081,7 +4171,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4 </t>
+          <t xml:space="preserve">        3-</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4091,17 +4181,17 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">8025087222      </t>
+          <t>                </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SATO-03-086/25 </t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>128268303</t>
+          <t>         </t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -4112,42 +4202,42 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G5G6   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0013</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10.942.474</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rolete                                  </t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4157,7 +4247,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4904574668</t>
+          <t>4904573477</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4167,7 +4257,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4177,63 +4267,63 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">8025087222      </t>
+          <t>G SKAU-04-108/25</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>128268303</t>
+          <t>         </t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G5G6   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0013</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11.043.945</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manilha-rolete                          </t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4243,7 +4333,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4904574598</t>
+          <t>4904573650</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4253,7 +4343,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4263,17 +4353,17 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">8025087169      </t>
+          <t xml:space="preserve">000675458-1     </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>128268303</t>
+          <t>         </t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -4284,42 +4374,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G5G6   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M0BV</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11.043.945</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manilha-rolete                          </t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A RECUPER</t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4329,7 +4419,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4904574598</t>
+          <t>4904573650</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4339,7 +4429,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4 </t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4349,17 +4439,17 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8025087169      </t>
+          <t xml:space="preserve">000675458-1     </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>128268303</t>
+          <t>         </t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -4370,7 +4460,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F30B   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4390,12 +4480,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11.698.615</t>
+          <t>10.411.448</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
+          <t>Manilha curva NBR 13545 gr 8S CMT 50/55t</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4415,7 +4505,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4904574403</t>
+          <t>4904580939</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4425,7 +4515,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        3 </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4440,7 +4530,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
+          <t xml:space="preserve">GEM BAVIT SATO-03-086/25 </t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4450,13 +4540,13 @@
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F30B   </t>
+          <t xml:space="preserve"> GE9W   </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4466,22 +4556,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11.698.615</t>
+          <t>10.575.166</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
+          <t xml:space="preserve">Cab.d/tração 7 1/16" 5 Ksi SWL 250 ton  </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4501,7 +4591,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4904574407</t>
+          <t>4904579902</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4511,7 +4601,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4521,12 +4611,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675472-1     </t>
+          <t xml:space="preserve">000003717-1     </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
+          <t xml:space="preserve">713/1361                 </t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4542,7 +4632,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F30B   </t>
+          <t xml:space="preserve"> GE9W   </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4552,22 +4642,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>M0BV</t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11.698.615</t>
+          <t>10.575.166</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
+          <t xml:space="preserve">Cab.d/tração 7 1/16" 5 Ksi SWL 250 ton  </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4587,7 +4677,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4904574407</t>
+          <t>4904579902</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4597,7 +4687,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4607,12 +4697,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675472-1     </t>
+          <t xml:space="preserve">000003717-1     </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
+          <t xml:space="preserve">713/1361                 </t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4628,32 +4718,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> SYL1   </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Y21</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>M0BV</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12.485.792</t>
+          <t>10.640.973</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cinta elevação carga em poliéster 15t 10</t>
+          <t xml:space="preserve">Junta anel BX-157 UNS N06625,190HB      </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4673,7 +4763,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4904572933</t>
+          <t>4904581484</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4683,7 +4773,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4 </t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4693,12 +4783,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675455-1     </t>
+          <t xml:space="preserve">2918689/1360    </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t xml:space="preserve">BABAKER BV 04/2026       </t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4714,32 +4804,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> SYL1   </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Y21</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M0BE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12.485.792</t>
+          <t>10.640.973</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cinta elevação carga em poliéster 15t 10</t>
+          <t xml:space="preserve">Junta anel BX-157 UNS N06625,190HB      </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4759,7 +4849,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4904572933</t>
+          <t>4904581484</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4769,7 +4859,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4779,12 +4869,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675455-1     </t>
+          <t xml:space="preserve">2918689/1360    </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t xml:space="preserve">BABAKER BV 04/2026       </t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4800,42 +4890,42 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>862</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12.485.792</t>
+          <t>10.769.608</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cinta elevação carga em poliéster 15t 10</t>
+          <t xml:space="preserve">Amarra s/m R4 DN elo 120mm x 10,0m      </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4845,7 +4935,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4904572931</t>
+          <t>4904579606</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4855,22 +4945,22 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>          </t>
+          <t>4514983535</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>G SKAU-04-108/25</t>
+          <t xml:space="preserve">9202876449      </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAPA BAÇU SKAU 07/2025   </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4880,18 +4970,18 @@
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EWPF   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>862</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4901,27 +4991,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F1VB</t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12.812.553</t>
+          <t>10.771.658</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraf. est. sub. 1"-8 x8"               </t>
+          <t xml:space="preserve">Manilha união 114mm                     </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4931,32 +5021,32 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4904568325</t>
+          <t>4904580617</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>01.02.2026</t>
+          <t>02.02.2026</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>          </t>
+          <t>4514970961</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">2927288-610     </t>
+          <t xml:space="preserve">9202873265      </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAVIT SAON 03/2025       </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4966,18 +5056,18 @@
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EWPF   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>864</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4987,27 +5077,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F1VB</t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12.814.121</t>
+          <t>10.771.658</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x18"          </t>
+          <t xml:space="preserve">Manilha união 114mm                     </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5017,32 +5107,32 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4904568847</t>
+          <t>4904581369</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>01.02.2026</t>
+          <t>02.02.2026</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>          </t>
+          <t>4514970961</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2816595-1313    </t>
+          <t xml:space="preserve">9202873265      </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAVIT SKNI 01/2026       </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5052,48 +5142,48 @@
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>2.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>862</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>    </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>12.814.128</t>
+          <t>10.771.658</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+          <t xml:space="preserve">Manilha união 114mm                     </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5103,7 +5193,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4904574662</t>
+          <t>4904580617</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -5113,22 +5203,22 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve">       12 </t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>          </t>
+          <t>4514970961</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>G SCRZ-05-098/25</t>
+          <t xml:space="preserve">9202873265      </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>MAPA BABAKER SCRZ 02/2025</t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5138,48 +5228,48 @@
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>3067.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DELM   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Y21</t>
+          <t>864</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>    </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12.814.128</t>
+          <t>10.771.658</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+          <t xml:space="preserve">Manilha união 114mm                     </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">USADO    </t>
+          <t>         </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5189,7 +5279,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4904574666</t>
+          <t>4904581369</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5199,22 +5289,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve">       12-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>          </t>
+          <t>4514970961</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675476-1     </t>
+          <t xml:space="preserve">9202873265      </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SCRZ-05-098/25 </t>
+          <t>                         </t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -5224,7 +5314,7 @@
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -5240,22 +5330,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>M0BV</t>
+          <t>M0BE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12.814.128</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5275,7 +5365,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4904574666</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5285,7 +5375,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve">       12 </t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5295,12 +5385,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675476-1     </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SCRZ-05-098/25 </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5321,12 +5411,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5336,12 +5426,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12.883.612</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5361,7 +5451,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4904573477</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5371,7 +5461,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5381,12 +5471,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>G SKAU-04-108/25</t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5396,7 +5486,7 @@
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5412,22 +5502,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0777</t>
+          <t>M0BE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12.883.612</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5447,7 +5537,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>4904573650</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5457,7 +5547,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5467,12 +5557,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675458-1     </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -5498,22 +5588,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>M0BV</t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>12.883.612</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5533,7 +5623,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>4904573650</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5543,7 +5633,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7 </t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5553,12 +5643,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">000675458-1     </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5574,12 +5664,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5589,27 +5679,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M0BE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5619,7 +5709,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5629,22 +5719,22 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5652,24 +5742,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>25100.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5679,27 +5765,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5709,7 +5795,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5724,17 +5810,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5742,24 +5828,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>25100.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5769,27 +5851,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M0BE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5799,7 +5881,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5809,22 +5891,22 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5832,24 +5914,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>7094.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5859,27 +5937,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5889,7 +5967,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577227</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5904,17 +5982,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">002944033-1     </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5922,24 +6000,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>7094.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5949,27 +6023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5979,7 +6053,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577225</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5989,12 +6063,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">       10 </t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6004,7 +6078,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6012,24 +6086,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>74636.50999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6039,27 +6109,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M077</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6069,7 +6139,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904577225</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6079,12 +6149,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">       10-</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6094,7 +6164,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">EXPEDIÇÃO Nº 450/26      </t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6102,24 +6172,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>18659.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6129,27 +6195,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.776.659</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Manilha curva NBR 13545 gr 6 CMT 9,5/10t</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6159,7 +6225,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904575994</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -6169,22 +6235,22 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1,640-</t>
+          <t xml:space="preserve">        2 </t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">AJUSTE SALDO    </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">REF A DSM 4903090919     </t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -6192,24 +6258,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>30601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> M2A0   </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6219,27 +6281,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.777.183</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Elo C pêra 62a79mm                      </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6249,7 +6311,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>5043455797</t>
+          <t>4904581000</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6259,12 +6321,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0,520-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4514997715</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6282,24 +6344,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>29108.26</v>
+        <v>1442.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6309,27 +6367,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.942.474</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Rolete                                  </t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6339,7 +6397,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>5043455796</t>
+          <t>4904574668</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6349,17 +6407,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve">    1,320-</t>
+          <t xml:space="preserve">        4 </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4514997718</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">8025087222      </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -6369,27 +6427,23 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>128268303</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>49260.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6399,27 +6453,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.942.474</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Rolete                                  </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6429,7 +6483,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5043455796</t>
+          <t>4904574668</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6439,17 +6493,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0,360-</t>
+          <t xml:space="preserve">        4-</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>4514997718</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">8025087222      </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -6459,27 +6513,23 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>128268303</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>6717.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G25D   </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6489,27 +6539,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.953.070</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Gancho KS 12                            </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6519,7 +6569,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5043455796</t>
+          <t>4904579558</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6529,12 +6579,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve">    0,580-</t>
+          <t xml:space="preserve">        1-</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4514997718</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6552,24 +6602,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>32466.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G25D   </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6579,27 +6625,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>FBEL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>10.953.070</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Gancho KS 12                            </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6609,7 +6655,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5043455794</t>
+          <t>4904579558</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6619,12 +6665,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>4514997719</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6642,24 +6688,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>50660.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6669,27 +6711,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M029</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>11.043.945</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Manilha-rolete                          </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6699,7 +6741,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>5043455794</t>
+          <t>4904574598</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6709,17 +6751,17 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        4 </t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>4514997719</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">8025087169      </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -6729,27 +6771,23 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>128268303</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>24728.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> G5G6   </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6759,27 +6797,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0013</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>11.043.945</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Manilha-rolete                          </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>A RECUPER</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6789,7 +6827,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>5043455794</t>
+          <t>4904574598</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6799,17 +6837,17 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        4-</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4514997719</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">8025087169      </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -6819,57 +6857,53 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+          <t>128268303</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>25100.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> F30B   </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M0BV</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>11.698.615</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6879,7 +6913,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>5043455794</t>
+          <t>4904574407</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6889,22 +6923,22 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4514997719</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">000675472-1     </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6912,54 +6946,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>5850.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> F30B   </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>11.698.615</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6969,7 +6999,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5043455794</t>
+          <t>4904574407</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6984,17 +7014,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4514997719</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">000675472-1     </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -7002,54 +7032,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>18659.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> F30B   </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>11.698.615</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Amarra c/m R4 DN elo 76mm x 2,0m        </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7059,7 +7085,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>4904574403</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7069,12 +7095,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        1 </t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -7084,7 +7110,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM SKAU-04-096/25       </t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -7092,54 +7118,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>50200.76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>12.485.792</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Cinta elevação carga em poliéster 15t 10</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7149,7 +7171,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>4904572931</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -7159,22 +7181,22 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        4 </t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>                </t>
+          <t>G SKAU-04-108/25</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">MAPA BAÇU SKAU 07/2025   </t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7182,54 +7204,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>7094.98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>0777</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>12.485.792</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Cinta elevação carga em poliéster 15t 10</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7239,7 +7257,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>4904572933</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7249,22 +7267,22 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        4-</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">000675455-1     </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -7272,54 +7290,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>14189.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> DELM   </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Y21</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M0BV</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>12.485.792</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t>Cinta elevação carga em poliéster 15t 10</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7329,7 +7343,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>4904572933</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7339,22 +7353,22 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        4 </t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">000675455-1     </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -7362,54 +7376,50 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>7094.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> R5HU   </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>861</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>M0UB</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>12.717.139</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Fluido hidráulico tb c/ 208L            </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>INDUS/NAC</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>         </t>
+          <t>INDUS/NAC</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7419,7 +7429,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>5043456621</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7429,17 +7439,17 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">6.864,000 </t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>4514952530</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">002940668-1     </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -7452,24 +7462,20 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>25100.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRNS   </t>
+          <t xml:space="preserve"> EWPF   </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7479,27 +7485,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>    </t>
+          <t>F1VB</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>70.000.196</t>
+          <t>12.812.553</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Serviços de apoio operacional - S/mater.</t>
+          <t xml:space="preserve">Paraf. est. sub. 1"-8 x8"               </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>         </t>
+          <t xml:space="preserve">USADO    </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7509,32 +7515,32 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>5043455752</t>
+          <t>4904568325</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>02.02.2026</t>
+          <t>01.02.2026</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1-</t>
+          <t xml:space="preserve">        8-</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>4514997721</t>
+          <t>          </t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>                </t>
+          <t xml:space="preserve">2927288-610     </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>                         </t>
+          <t xml:space="preserve">BAVIT SAON 03/2025       </t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -7542,102 +7548,2766 @@
           <t>         </t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>7094.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t xml:space="preserve"> EWPF   </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>F1VB</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>12.814.121</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x18"          </t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>4904568847</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01.02.2026</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        6-</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2816595-1313    </t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAVIT SKNI 01/2026       </t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0777</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>12.814.128</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>4904574662</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       12 </t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>G SCRZ-05-098/25</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>MAPA BABAKER SCRZ 02/2025</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>3067.2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Y21</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0777</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12.814.128</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>4904574666</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       12-</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000675476-1     </t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEM BAVIT SCRZ-05-098/25 </t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Y21</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>M0BV</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>12.814.128</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraf. est. sub. 1 3/8"-8 x13"          </t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>4904574666</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       12 </t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000675476-1     </t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEM BAVIT SCRZ-05-098/25 </t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> R5HU   </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>M0UB</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>12.821.019</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anel de carga DN 55mm 67t               </t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CONS/IAMN</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>CONS/IAMN</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>5043457383</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       28 </t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>4514977450</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">002942223-1     </t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0777</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>12.883.612</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>4904573477</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        7 </t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>G SKAU-04-108/25</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Y21</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0777</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12.883.612</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4904573650</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        7-</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000675458-1     </t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELM   </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Y21</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>M0BV</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>12.883.612</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anel de carga DN 45mm                   </t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USADO    </t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>4904573650</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        7 </t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>          </t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">000675458-1     </t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GEM BAVIT SKAU-04-108/25 </t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t xml:space="preserve"> TRNS   </t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>2096</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>    </t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>70.000.196</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Serviços de apoio operacional - S/mater.</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>        </t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>25100.39</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>25100.39</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>7094.97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>7094.99</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>74636.50999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>18659.15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1,640-</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>30601</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>5043455797</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0,520-</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>4514997715</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>29108.26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>5043455796</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1,320-</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>4514997718</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>49260.11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>5043455796</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0,360-</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4514997718</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>6717.29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>5043455796</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0,580-</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>4514997718</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>32466.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>5043455794</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>4514997719</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>50660.14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>5043455794</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>4514997719</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>24728.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>5043455794</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>4514997719</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>25100.39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>5043455794</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>4514997719</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>5850.64</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>5043455794</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>4514997719</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>18659.14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>5043455752</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>02.02.2026</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t xml:space="preserve">        1-</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>4514997721</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>                </t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>                         </t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>         </t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
         <is>
           <t>*</t>
         </is>
       </c>
-      <c r="R80" t="n">
+      <c r="R104" t="n">
+        <v>50200.76</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>7094.98</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>14189.94</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>7094.98</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>25100.38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>7094.98</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNS   </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>    </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>70.000.196</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Serviços de apoio operacional - S/mater.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>        </t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>5043455752</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>02.02.2026</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1-</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>4514997721</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>                </t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>                         </t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>         </t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>7094.98</v>
       </c>
     </row>
